--- a/LR3/table_2_12.xlsx
+++ b/LR3/table_2_12.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B21BD3-D5F6-4E6D-8B3B-6E18EB06F65B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="14928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица отпусков 2022" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
@@ -1593,7 +1592,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="55704167"/>
@@ -1656,7 +1655,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="10126892"/>
@@ -1804,38 +1803,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A3:V11" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:V11" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Сотрудник" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Должность" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Начало года" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Столбец1" dataDxfId="19">
+    <tableColumn id="1" name="Сотрудник" dataDxfId="22"/>
+    <tableColumn id="2" name="Должность" dataDxfId="21"/>
+    <tableColumn id="3" name="Начало года" dataDxfId="20"/>
+    <tableColumn id="4" name="Столбец1" dataDxfId="19">
       <calculatedColumnFormula>IF(MONTH(E4)&gt;2,E4-C4+2,E4-C4+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Дата начала1" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Продолжительность1, дней" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Дата конца1" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Столбец2" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Дата начала2" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Продолжительность2, дней" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Дата конца2" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Столбец3" dataDxfId="11">
+    <tableColumn id="5" name="Дата начала1" dataDxfId="18"/>
+    <tableColumn id="6" name="Продолжительность1, дней" dataDxfId="17"/>
+    <tableColumn id="7" name="Дата конца1" dataDxfId="16"/>
+    <tableColumn id="8" name="Столбец2" dataDxfId="15"/>
+    <tableColumn id="9" name="Дата начала2" dataDxfId="14"/>
+    <tableColumn id="10" name="Продолжительность2, дней" dataDxfId="13"/>
+    <tableColumn id="11" name="Дата конца2" dataDxfId="12"/>
+    <tableColumn id="12" name="Столбец3" dataDxfId="11">
       <calculatedColumnFormula>IF(AND(M4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Дата начала3" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Продолжительность3, дней" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Дата конца3" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Столбец4" dataDxfId="7">
+    <tableColumn id="13" name="Дата начала3" dataDxfId="10"/>
+    <tableColumn id="14" name="Продолжительность3, дней" dataDxfId="9"/>
+    <tableColumn id="15" name="Дата конца3" dataDxfId="8"/>
+    <tableColumn id="16" name="Столбец4" dataDxfId="7">
       <calculatedColumnFormula>IF(AND(Q4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L4-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Дата начала4" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Продолжительность4, дней" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Дата конца4" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Положено за год" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Израсхо- довано" dataDxfId="2">
+    <tableColumn id="17" name="Дата начала4" dataDxfId="6"/>
+    <tableColumn id="18" name="Продолжительность4, дней" dataDxfId="5"/>
+    <tableColumn id="19" name="Дата конца4" dataDxfId="4"/>
+    <tableColumn id="20" name="Положено за год" dataDxfId="3"/>
+    <tableColumn id="21" name="Израсхо- довано" dataDxfId="2">
       <calculatedColumnFormula>F4+J4+N4+R4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Оста- лось" dataDxfId="1">
+    <tableColumn id="22" name="Оста- лось" dataDxfId="1">
       <calculatedColumnFormula>T4-U4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2105,32 +2104,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E49" sqref="E49:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16">
         <v>44562</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2358,7 +2357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>44562</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D4:D11" si="4">IF(MONTH(E6)&gt;2,E6-C6+2,E6-C6+1)</f>
+        <f t="shared" ref="D6:D11" si="4">IF(MONTH(E6)&gt;2,E6-C6+2,E6-C6+1)</f>
         <v>33</v>
       </c>
       <c r="E6" s="5">
@@ -2435,7 +2434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2666,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2835,99 +2834,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>44563</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44564</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44565</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44566</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>44568</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44569</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44615</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>44628</v>
+      </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
-        <v>44628</v>
+        <v>44682</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
-        <v>44682</v>
+        <v>44690</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>44724</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>44690</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>44724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>44869</v>
       </c>
     </row>

--- a/LR3/table_2_12.xlsx
+++ b/LR3/table_2_12.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эльдар\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="14928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
   </bookViews>
   <sheets>
-    <sheet name="Таблица отпусков 2022" sheetId="1" r:id="rId1"/>
-    <sheet name="Праздники" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,6 +69,9 @@
     <t>Дата конца2</t>
   </si>
   <si>
+    <t>Столбец6</t>
+  </si>
+  <si>
     <t>Дата начала3</t>
   </si>
   <si>
@@ -72,6 +81,9 @@
     <t>Дата конца3</t>
   </si>
   <si>
+    <t>Столбец10</t>
+  </si>
+  <si>
     <t>Дата начала4</t>
   </si>
   <si>
@@ -114,16 +126,10 @@
     <t>Сотрудник 8</t>
   </si>
   <si>
-    <t>дата начало года</t>
-  </si>
-  <si>
     <t>Нераб. дни 2022</t>
   </si>
   <si>
-    <t>Столбец3</t>
-  </si>
-  <si>
-    <t>Столбец4</t>
+    <t>-дата начала года</t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -228,7 +234,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -237,17 +256,38 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -282,6 +322,23 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -294,32 +351,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -331,24 +370,6 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -603,7 +624,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color auto="1"/>
@@ -614,8 +635,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -649,7 +668,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -658,13 +677,17 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,7 +728,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Таблица отпусков 2022'!$D$3</c:f>
+              <c:f>Sheet1!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -724,75 +747,55 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]График отпусков 2016 год'!$A$9:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Сотрудник 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Сотрудник 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Сотрудник 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Сотрудник 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Сотрудник 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Сотрудник 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Сотрудник 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Сотрудник 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Таблица отпусков 2022'!$D$4:$D$11</c:f>
+              <c:f>Sheet1!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -803,11 +806,186 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Таблица отпусков 2022'!$F$3</c:f>
+              <c:f>Sheet1!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Продолжительность1, дней</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8067-433D-BB5E-C6309389FB74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Столбец2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8067-433D-BB5E-C6309389FB74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продолжительность2, дней</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -831,59 +1009,25 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]График отпусков 2016 год'!$A$9:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Сотрудник 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Сотрудник 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Сотрудник 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Сотрудник 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Сотрудник 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Сотрудник 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Сотрудник 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Сотрудник 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Таблица отпусков 2022'!$F$4:$F$11</c:f>
+              <c:f>Sheet1!$J$4:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
@@ -892,33 +1036,48 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8067-433D-BB5E-C6309389FB74}"/>
+              <c16:uniqueId val="{00000003-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Таблица отпусков 2022'!$H$3</c:f>
+              <c:f>Sheet1!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Столбец2</c:v>
+                  <c:v>Столбец6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -933,90 +1092,70 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]График отпусков 2016 год'!$A$9:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Сотрудник 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Сотрудник 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Сотрудник 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Сотрудник 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Сотрудник 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Сотрудник 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Сотрудник 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Сотрудник 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Таблица отпусков 2022'!$H$4:$H$11</c:f>
+              <c:f>Sheet1!$L$4:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8067-433D-BB5E-C6309389FB74}"/>
+              <c16:uniqueId val="{00000004-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Таблица отпусков 2022'!$J$3</c:f>
+              <c:f>Sheet1!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Продолжительность2, дней</c:v>
+                  <c:v>Продолжительность3, дней</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1040,94 +1179,75 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]График отпусков 2016 год'!$A$9:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Сотрудник 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Сотрудник 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Сотрудник 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Сотрудник 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Сотрудник 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Сотрудник 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Сотрудник 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Сотрудник 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Таблица отпусков 2022'!$J$4:$J$11</c:f>
+              <c:f>Sheet1!$N$4:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8067-433D-BB5E-C6309389FB74}"/>
+              <c16:uniqueId val="{00000005-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Таблица отпусков 2022'!$L$3</c:f>
+              <c:f>Sheet1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Столбец3</c:v>
+                  <c:v>Столбец10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1142,90 +1262,70 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]График отпусков 2016 год'!$A$9:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Сотрудник 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Сотрудник 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Сотрудник 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Сотрудник 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Сотрудник 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Сотрудник 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Сотрудник 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Сотрудник 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Таблица отпусков 2022'!$L$4:$L$11</c:f>
+              <c:f>Sheet1!$P$4:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>126</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8067-433D-BB5E-C6309389FB74}"/>
+              <c16:uniqueId val="{00000006-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Таблица отпусков 2022'!$N$3</c:f>
+              <c:f>Sheet1!$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Продолжительность3, дней</c:v>
+                  <c:v>Продолжительность4, дней</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1249,288 +1349,60 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]График отпусков 2016 год'!$A$9:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Сотрудник 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Сотрудник 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Сотрудник 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Сотрудник 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Сотрудник 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Сотрудник 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Сотрудник 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Сотрудник 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Таблица отпусков 2022'!$N$4:$N$11</c:f>
+              <c:f>Sheet1!$R$4:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8067-433D-BB5E-C6309389FB74}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
             </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Таблица отпусков 2022'!$P$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Столбец4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]График отпусков 2016 год'!$A$9:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Сотрудник 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Сотрудник 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Сотрудник 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Сотрудник 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Сотрудник 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Сотрудник 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Сотрудник 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Сотрудник 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Таблица отпусков 2022'!$P$4:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>119</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8067-433D-BB5E-C6309389FB74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Таблица отпусков 2022'!$R$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Продолжительность4, дней</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]График отпусков 2016 год'!$A$9:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Сотрудник 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Сотрудник 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Сотрудник 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Сотрудник 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Сотрудник 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Сотрудник 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Сотрудник 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Сотрудник 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Таблица отпусков 2022'!$R$4:$R$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -1584,12 +1456,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1647,12 +1518,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1703,10 +1573,10 @@
       <xdr:rowOff>74558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38798</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>102174</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121103</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1736,105 +1606,39 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="График отпусков 2016 год"/>
-      <sheetName val="Праздники"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Столбец1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Сотрудник 1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Сотрудник 2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Сотрудник 3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Сотрудник 4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Сотрудник 5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Сотрудник 6</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Сотрудник 7</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Сотрудник 8</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:V11" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:V11" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23">
   <tableColumns count="22">
-    <tableColumn id="1" name="Сотрудник" dataDxfId="22"/>
-    <tableColumn id="2" name="Должность" dataDxfId="21"/>
-    <tableColumn id="3" name="Начало года" dataDxfId="20"/>
-    <tableColumn id="4" name="Столбец1" dataDxfId="19">
+    <tableColumn id="1" name="Сотрудник" dataDxfId="21"/>
+    <tableColumn id="2" name="Должность" dataDxfId="20"/>
+    <tableColumn id="3" name="Начало года" dataDxfId="19"/>
+    <tableColumn id="4" name="Столбец1" dataDxfId="18">
       <calculatedColumnFormula>IF(MONTH(E4)&gt;2,E4-C4+2,E4-C4+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Дата начала1" dataDxfId="18"/>
-    <tableColumn id="6" name="Продолжительность1, дней" dataDxfId="17"/>
-    <tableColumn id="7" name="Дата конца1" dataDxfId="16"/>
-    <tableColumn id="8" name="Столбец2" dataDxfId="15"/>
-    <tableColumn id="9" name="Дата начала2" dataDxfId="14"/>
-    <tableColumn id="10" name="Продолжительность2, дней" dataDxfId="13"/>
-    <tableColumn id="11" name="Дата конца2" dataDxfId="12"/>
-    <tableColumn id="12" name="Столбец3" dataDxfId="11">
+    <tableColumn id="5" name="Дата начала1" dataDxfId="17"/>
+    <tableColumn id="6" name="Продолжительность1, дней" dataDxfId="16"/>
+    <tableColumn id="7" name="Дата конца1" dataDxfId="15"/>
+    <tableColumn id="8" name="Столбец2" dataDxfId="14"/>
+    <tableColumn id="9" name="Дата начала2" dataDxfId="13"/>
+    <tableColumn id="10" name="Продолжительность2, дней" dataDxfId="12"/>
+    <tableColumn id="11" name="Дата конца2" dataDxfId="11"/>
+    <tableColumn id="12" name="Столбец6" dataDxfId="10">
       <calculatedColumnFormula>IF(AND(M4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Дата начала3" dataDxfId="10"/>
-    <tableColumn id="14" name="Продолжительность3, дней" dataDxfId="9"/>
-    <tableColumn id="15" name="Дата конца3" dataDxfId="8"/>
-    <tableColumn id="16" name="Столбец4" dataDxfId="7">
+    <tableColumn id="13" name="Дата начала3" dataDxfId="9"/>
+    <tableColumn id="14" name="Продолжительность3, дней" dataDxfId="8"/>
+    <tableColumn id="15" name="Дата конца3" dataDxfId="7"/>
+    <tableColumn id="16" name="Столбец10" dataDxfId="6">
       <calculatedColumnFormula>IF(AND(Q4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L4-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Дата начала4" dataDxfId="6"/>
-    <tableColumn id="18" name="Продолжительность4, дней" dataDxfId="5"/>
-    <tableColumn id="19" name="Дата конца4" dataDxfId="4"/>
-    <tableColumn id="20" name="Положено за год" dataDxfId="3"/>
-    <tableColumn id="21" name="Израсхо- довано" dataDxfId="2">
+    <tableColumn id="17" name="Дата начала4" dataDxfId="5"/>
+    <tableColumn id="18" name="Продолжительность4, дней" dataDxfId="4"/>
+    <tableColumn id="19" name="Дата конца4" dataDxfId="3"/>
+    <tableColumn id="20" name="Положено за год" dataDxfId="2"/>
+    <tableColumn id="21" name="Израсхо- довано" dataDxfId="1">
       <calculatedColumnFormula>F4+J4+N4+R4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Оста- лось" dataDxfId="1">
+    <tableColumn id="22" name="Оста- лось" dataDxfId="0">
       <calculatedColumnFormula>T4-U4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2107,817 +1911,841 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:E51"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="23"/>
+    <col min="7" max="7" width="16" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12" style="23" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="23"/>
+    <col min="11" max="11" width="14.88671875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="23"/>
+    <col min="13" max="13" width="14.44140625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="23"/>
+    <col min="15" max="15" width="13.6640625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="23"/>
+    <col min="17" max="17" width="13.6640625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="23"/>
+    <col min="19" max="19" width="13.33203125" style="23" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="22">
         <v>44562</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>28</v>
+      <c r="B1" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="14" t="s">
+      <c r="O3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="P3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="Q3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="R3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="S3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="T3" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="U3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4">
         <f>$A$1</f>
         <v>44562</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D11" si="0">IF(MONTH(E4)&gt;2,E4-C4+2,E4-C4+1)</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>44571</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8">
+        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
+        <v>44580</v>
+      </c>
+      <c r="H4" s="9">
+        <f>IF(AND(I4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I4-$C4-D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
+        <v>30</v>
+      </c>
+      <c r="I4" s="6">
+        <v>44611</v>
+      </c>
+      <c r="J4" s="7">
+        <v>10</v>
+      </c>
+      <c r="K4" s="8">
+        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
+        <v>44620</v>
+      </c>
+      <c r="L4" s="9">
+        <f>IF(AND(M4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
+        <v>72</v>
+      </c>
+      <c r="M4" s="6">
+        <v>44693</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2</v>
+      </c>
+      <c r="O4" s="8">
+        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
+        <v>44694</v>
+      </c>
+      <c r="P4" s="9">
+        <f>IF(AND(Q4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L4-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
+        <v>176</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>44871</v>
+      </c>
+      <c r="R4" s="7">
+        <v>6</v>
+      </c>
+      <c r="S4" s="10">
+        <f>Q4+R4-1</f>
+        <v>44876</v>
+      </c>
+      <c r="T4" s="11">
+        <v>28</v>
+      </c>
+      <c r="U4" s="12">
+        <f t="shared" ref="U4:U11" si="1">F4+J4+N4+R4</f>
+        <v>28</v>
+      </c>
+      <c r="V4" s="13">
+        <f t="shared" ref="V4:V11" si="2">T4-U4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C11" si="3">$A$1</f>
+        <v>44562</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44565</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
+        <v>44567</v>
+      </c>
+      <c r="H5" s="9">
+        <f>IF(AND(I5-$C5&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I5-$C5-D5-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
+        <v>38</v>
+      </c>
+      <c r="I5" s="6">
+        <v>44606</v>
+      </c>
+      <c r="J5" s="7">
+        <v>10</v>
+      </c>
+      <c r="K5" s="8">
+        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
+        <v>44615</v>
+      </c>
+      <c r="L5" s="9">
+        <f>IF(AND(M5-$C5&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M5-$C5-$D5-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H5-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
+        <v>87</v>
+      </c>
+      <c r="M5" s="6">
+        <v>44703</v>
+      </c>
+      <c r="N5" s="7">
+        <v>7</v>
+      </c>
+      <c r="O5" s="8">
+        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
+        <v>44709</v>
+      </c>
+      <c r="P5" s="9">
+        <f>IF(AND(Q5-$C5&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q5-$C5-$D5-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H5-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L5-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
+        <v>156</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>44866</v>
+      </c>
+      <c r="R5" s="7">
+        <v>8</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" ref="S5:S11" si="4">Q5+R5-1</f>
+        <v>44873</v>
+      </c>
+      <c r="T5" s="11">
+        <v>28</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="V5" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4">
+        <f t="shared" si="3"/>
+        <v>44562</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>44569</v>
+      </c>
+      <c r="F6" s="7">
+        <v>7</v>
+      </c>
+      <c r="G6" s="8">
+        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
+        <v>44575</v>
+      </c>
+      <c r="H6" s="9">
+        <f>IF(AND(I6-$C6&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I6-$C6-D6-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
+        <v>37</v>
+      </c>
+      <c r="I6" s="6">
+        <v>44613</v>
+      </c>
+      <c r="J6" s="7">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8">
+        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
+        <v>44619</v>
+      </c>
+      <c r="L6" s="9">
+        <f>IF(AND(M6-$C6&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M6-$C6-$D6-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H6-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
+        <v>76</v>
+      </c>
+      <c r="M6" s="6">
+        <v>44696</v>
+      </c>
+      <c r="N6" s="7">
+        <v>7</v>
+      </c>
+      <c r="O6" s="8">
+        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
+        <v>44702</v>
+      </c>
+      <c r="P6" s="9">
+        <f>IF(AND(Q6-$C6&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q6-$C6-$D6-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H6-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L6-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
+        <v>170</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>44873</v>
+      </c>
+      <c r="R6" s="7">
+        <v>7</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="4"/>
+        <v>44879</v>
+      </c>
+      <c r="T6" s="11">
+        <v>28</v>
+      </c>
+      <c r="U6" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <f t="shared" si="3"/>
+        <v>44562</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>44571</v>
+      </c>
+      <c r="F7" s="7">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8">
+        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
+        <v>44584</v>
+      </c>
+      <c r="H7" s="9">
+        <f>IF(AND(I7-$C7&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I7-$C7-D7-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
+        <v>29</v>
+      </c>
+      <c r="I7" s="6">
+        <v>44614</v>
+      </c>
+      <c r="J7" s="7">
+        <v>7</v>
+      </c>
+      <c r="K7" s="8">
+        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
+        <v>44620</v>
+      </c>
+      <c r="L7" s="9">
+        <f>IF(AND(M7-$C7&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M7-$C7-$D7-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H7-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
+        <v>74</v>
+      </c>
+      <c r="M7" s="6">
+        <v>44695</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
+        <v>44695</v>
+      </c>
+      <c r="P7" s="9">
+        <f>IF(AND(Q7-$C7&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q7-$C7-$D7-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H7-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L7-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
+        <v>178</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>44874</v>
+      </c>
+      <c r="R7" s="7">
+        <v>6</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="4"/>
+        <v>44879</v>
+      </c>
+      <c r="T7" s="11">
+        <v>28</v>
+      </c>
+      <c r="U7" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="V7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
+        <f t="shared" si="3"/>
+        <v>44562</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44576</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
+        <v>44585</v>
+      </c>
+      <c r="H8" s="9">
+        <f>IF(AND(I8-$C8&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I8-$C8-D8-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
+        <v>27</v>
+      </c>
+      <c r="I8" s="6">
+        <v>44613</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10</v>
+      </c>
+      <c r="K8" s="8">
+        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
+        <v>44622</v>
+      </c>
+      <c r="L8" s="9">
+        <f>IF(AND(M8-$C8&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M8-$C8-$D8-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H8-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
+        <v>63</v>
+      </c>
+      <c r="M8" s="6">
+        <v>44686</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3</v>
+      </c>
+      <c r="O8" s="8">
+        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
+        <v>44688</v>
+      </c>
+      <c r="P8" s="9">
+        <f>IF(AND(Q8-$C8&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q8-$C8-$D8-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H8-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L8-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
+        <v>186</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>44875</v>
+      </c>
+      <c r="R8" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="S8" s="10">
+        <f t="shared" si="4"/>
+        <v>44879</v>
+      </c>
+      <c r="T8" s="11">
+        <v>28</v>
+      </c>
+      <c r="U8" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="V8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4">
+        <f t="shared" si="3"/>
+        <v>44562</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44572</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8">
+        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
+        <v>44578</v>
+      </c>
+      <c r="H9" s="9">
+        <f>IF(AND(I9-$C9&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I9-$C9-D9-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
+        <v>37</v>
+      </c>
+      <c r="I9" s="6">
+        <v>44616</v>
+      </c>
+      <c r="J9" s="7">
+        <v>9</v>
+      </c>
+      <c r="K9" s="8">
+        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
+        <v>44624</v>
+      </c>
+      <c r="L9" s="9">
+        <f>IF(AND(M9-$C9&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M9-$C9-$D9-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H9-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
+        <v>62</v>
+      </c>
+      <c r="M9" s="6">
+        <v>44687</v>
+      </c>
+      <c r="N9" s="7">
+        <v>7</v>
+      </c>
+      <c r="O9" s="8">
+        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
+        <v>44693</v>
+      </c>
+      <c r="P9" s="9">
+        <f>IF(AND(Q9-$C9&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q9-$C9-$D9-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H9-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L9-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
+        <v>182</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>44876</v>
+      </c>
+      <c r="R9" s="7">
+        <v>5</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="4"/>
+        <v>44880</v>
+      </c>
+      <c r="T9" s="11">
+        <v>28</v>
+      </c>
+      <c r="U9" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4">
+        <f t="shared" si="3"/>
+        <v>44562</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
         <v>44567</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F10" s="7">
         <v>7</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G10" s="8">
         <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
         <v>44573</v>
       </c>
-      <c r="H4" s="8">
-        <f>IF(AND(I4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I4-$C4-D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
+      <c r="H10" s="9">
+        <f>IF(AND(I10-$C10&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I10-$C10-D10-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
         <v>20</v>
       </c>
-      <c r="I4" s="5">
-        <v>44593</v>
-      </c>
-      <c r="J4" s="6">
-        <v>8</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="I10" s="6">
+        <v>44594</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="8">
         <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44600</v>
-      </c>
-      <c r="L4" s="8">
-        <f>IF(AND(M4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>126</v>
-      </c>
-      <c r="M4" s="5">
-        <v>44727</v>
-      </c>
-      <c r="N4" s="6">
+        <v>44595</v>
+      </c>
+      <c r="L10" s="9">
+        <f>IF(AND(M10-$C10&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M10-$C10-$D10-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H10-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
+        <v>88</v>
+      </c>
+      <c r="M10" s="6">
+        <v>44684</v>
+      </c>
+      <c r="N10" s="7">
+        <v>14</v>
+      </c>
+      <c r="O10" s="8">
+        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
+        <v>44697</v>
+      </c>
+      <c r="P10" s="9">
+        <f>IF(AND(Q10-$C10&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q10-$C10-$D10-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H10-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L10-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
+        <v>179</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>44877</v>
+      </c>
+      <c r="R10" s="7">
         <v>5</v>
       </c>
-      <c r="O4" s="7">
+      <c r="S10" s="10">
+        <f t="shared" si="4"/>
+        <v>44881</v>
+      </c>
+      <c r="T10" s="11">
+        <v>28</v>
+      </c>
+      <c r="U10" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="V10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="4">
+        <f t="shared" si="3"/>
+        <v>44562</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>44566</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8">
+        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
+        <v>44568</v>
+      </c>
+      <c r="H11" s="9">
+        <f>IF(AND(I11-$C11&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I11-$C11-D11-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
+        <v>51</v>
+      </c>
+      <c r="I11" s="6">
+        <v>44620</v>
+      </c>
+      <c r="J11" s="7">
+        <v>10</v>
+      </c>
+      <c r="K11" s="8">
+        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
+        <v>44629</v>
+      </c>
+      <c r="L11" s="9">
+        <f>IF(AND(M11-$C11&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M11-$C11-$D11-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H11-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
+        <v>61</v>
+      </c>
+      <c r="M11" s="6">
+        <v>44691</v>
+      </c>
+      <c r="N11" s="7">
+        <v>14</v>
+      </c>
+      <c r="O11" s="8">
         <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44731</v>
-      </c>
-      <c r="P4" s="8">
-        <f>IF(AND(Q4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L4-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>140</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>44872</v>
-      </c>
-      <c r="R4" s="6">
-        <v>5</v>
-      </c>
-      <c r="S4" s="9">
-        <f>Q4+R4-1</f>
-        <v>44876</v>
-      </c>
-      <c r="T4" s="10">
+        <v>44704</v>
+      </c>
+      <c r="P11" s="9">
+        <f>IF(AND(Q11-$C11&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q11-$C11-$D11-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H11-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L11-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
+        <v>173</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>44878</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="4"/>
+        <v>44878</v>
+      </c>
+      <c r="T11" s="15">
         <v>28</v>
       </c>
-      <c r="U4" s="11">
-        <f t="shared" ref="U4:U11" si="0">F4+J4+N4+R4</f>
-        <v>25</v>
-      </c>
-      <c r="V4" s="11">
-        <f t="shared" ref="V4:V11" si="1">T4-U4</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:C11" si="2">$A$1</f>
-        <v>44562</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5">
-        <v>44593</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7">
-        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44602</v>
-      </c>
-      <c r="H5" s="8">
-        <f>IF(AND(I5-$C5&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I5-$C5-D5-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>59</v>
-      </c>
-      <c r="I5" s="5">
-        <v>44636</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="K5" s="7">
-        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44640</v>
-      </c>
-      <c r="L5" s="8">
-        <f>IF(AND(M5-$C5&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M5-$C5-$D5-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H5-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>106</v>
-      </c>
-      <c r="M5" s="5">
-        <v>44747</v>
-      </c>
-      <c r="N5" s="6">
-        <v>7</v>
-      </c>
-      <c r="O5" s="7">
-        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44753</v>
-      </c>
-      <c r="P5" s="8">
-        <f>IF(AND(Q5-$C5&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q5-$C5-$D5-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H5-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L5-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>119</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>44873</v>
-      </c>
-      <c r="R5" s="6">
-        <v>3</v>
-      </c>
-      <c r="S5" s="9">
-        <f t="shared" ref="S5:S11" si="3">Q5+R5-1</f>
-        <v>44875</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="U11" s="16">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="U5" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="V5" s="11">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3">
+      <c r="V11" s="17">
         <f t="shared" si="2"/>
-        <v>44562</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" ref="D6:D11" si="4">IF(MONTH(E6)&gt;2,E6-C6+2,E6-C6+1)</f>
-        <v>33</v>
-      </c>
-      <c r="E6" s="5">
-        <v>44594</v>
-      </c>
-      <c r="F6" s="6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7">
-        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44598</v>
-      </c>
-      <c r="H6" s="8">
-        <f>IF(AND(I6-$C6&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I6-$C6-D6-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>38</v>
-      </c>
-      <c r="I6" s="5">
-        <v>44637</v>
-      </c>
-      <c r="J6" s="6">
-        <v>7</v>
-      </c>
-      <c r="K6" s="7">
-        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44643</v>
-      </c>
-      <c r="L6" s="8">
-        <f>IF(AND(M6-$C6&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M6-$C6-$D6-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H6-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>104</v>
-      </c>
-      <c r="M6" s="5">
-        <v>44748</v>
-      </c>
-      <c r="N6" s="6">
-        <v>10</v>
-      </c>
-      <c r="O6" s="7">
-        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44757</v>
-      </c>
-      <c r="P6" s="8">
-        <f>IF(AND(Q6-$C6&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q6-$C6-$D6-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H6-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L6-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>116</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>44874</v>
-      </c>
-      <c r="R6" s="6">
-        <v>4</v>
-      </c>
-      <c r="S6" s="9">
-        <f t="shared" si="3"/>
-        <v>44877</v>
-      </c>
-      <c r="T6" s="10">
-        <v>28</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="V6" s="11">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3">
-        <f t="shared" si="2"/>
-        <v>44562</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="E7" s="5">
-        <v>44595</v>
-      </c>
-      <c r="F7" s="6">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7">
-        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44601</v>
-      </c>
-      <c r="H7" s="8">
-        <f>IF(AND(I7-$C7&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I7-$C7-D7-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>36</v>
-      </c>
-      <c r="I7" s="5">
-        <v>44638</v>
-      </c>
-      <c r="J7" s="6">
-        <v>5</v>
-      </c>
-      <c r="K7" s="7">
-        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44642</v>
-      </c>
-      <c r="L7" s="8">
-        <f>IF(AND(M7-$C7&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M7-$C7-$D7-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H7-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>106</v>
-      </c>
-      <c r="M7" s="5">
-        <v>44749</v>
-      </c>
-      <c r="N7" s="6">
-        <v>7</v>
-      </c>
-      <c r="O7" s="7">
-        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44755</v>
-      </c>
-      <c r="P7" s="8">
-        <f>IF(AND(Q7-$C7&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q7-$C7-$D7-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H7-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L7-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>119</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>44875</v>
-      </c>
-      <c r="R7" s="6">
-        <v>4</v>
-      </c>
-      <c r="S7" s="9">
-        <f t="shared" si="3"/>
-        <v>44878</v>
-      </c>
-      <c r="T7" s="10">
-        <v>28</v>
-      </c>
-      <c r="U7" s="11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="V7" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3">
-        <f t="shared" si="2"/>
-        <v>44562</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="E8" s="5">
-        <v>44596</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7">
-        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44605</v>
-      </c>
-      <c r="H8" s="8">
-        <f>IF(AND(I8-$C8&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I8-$C8-D8-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>33</v>
-      </c>
-      <c r="I8" s="5">
-        <v>44639</v>
-      </c>
-      <c r="J8" s="6">
-        <v>5</v>
-      </c>
-      <c r="K8" s="7">
-        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44643</v>
-      </c>
-      <c r="L8" s="8">
-        <f>IF(AND(M8-$C8&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M8-$C8-$D8-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H8-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>106</v>
-      </c>
-      <c r="M8" s="5">
-        <v>44750</v>
-      </c>
-      <c r="N8" s="6">
-        <v>5</v>
-      </c>
-      <c r="O8" s="7">
-        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44754</v>
-      </c>
-      <c r="P8" s="8">
-        <f>IF(AND(Q8-$C8&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q8-$C8-$D8-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H8-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L8-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>121</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>44876</v>
-      </c>
-      <c r="R8" s="6">
-        <v>7</v>
-      </c>
-      <c r="S8" s="9">
-        <f t="shared" si="3"/>
-        <v>44882</v>
-      </c>
-      <c r="T8" s="10">
-        <v>28</v>
-      </c>
-      <c r="U8" s="11">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="V8" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3">
-        <f t="shared" si="2"/>
-        <v>44562</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="E9" s="5">
-        <v>44597</v>
-      </c>
-      <c r="F9" s="6">
-        <v>10</v>
-      </c>
-      <c r="G9" s="7">
-        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44606</v>
-      </c>
-      <c r="H9" s="8">
-        <f>IF(AND(I9-$C9&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I9-$C9-D9-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>33</v>
-      </c>
-      <c r="I9" s="5">
-        <v>44640</v>
-      </c>
-      <c r="J9" s="6">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7">
-        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44644</v>
-      </c>
-      <c r="L9" s="8">
-        <f>IF(AND(M9-$C9&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M9-$C9-$D9-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H9-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>106</v>
-      </c>
-      <c r="M9" s="5">
-        <v>44751</v>
-      </c>
-      <c r="N9" s="6">
-        <v>7</v>
-      </c>
-      <c r="O9" s="7">
-        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44757</v>
-      </c>
-      <c r="P9" s="8">
-        <f>IF(AND(Q9-$C9&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q9-$C9-$D9-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H9-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L9-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>119</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>44877</v>
-      </c>
-      <c r="R9" s="6">
-        <v>5</v>
-      </c>
-      <c r="S9" s="9">
-        <f t="shared" si="3"/>
-        <v>44881</v>
-      </c>
-      <c r="T9" s="10">
-        <v>28</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="V9" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3">
-        <f t="shared" si="2"/>
-        <v>44562</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="E10" s="5">
-        <v>44598</v>
-      </c>
-      <c r="F10" s="6">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7">
-        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44607</v>
-      </c>
-      <c r="H10" s="8">
-        <f>IF(AND(I10-$C10&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I10-$C10-D10-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>33</v>
-      </c>
-      <c r="I10" s="5">
-        <v>44641</v>
-      </c>
-      <c r="J10" s="6">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7">
-        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44650</v>
-      </c>
-      <c r="L10" s="8">
-        <f>IF(AND(M10-$C10&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M10-$C10-$D10-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H10-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>101</v>
-      </c>
-      <c r="M10" s="5">
-        <v>44752</v>
-      </c>
-      <c r="N10" s="6">
-        <v>5</v>
-      </c>
-      <c r="O10" s="7">
-        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44756</v>
-      </c>
-      <c r="P10" s="8">
-        <f>IF(AND(Q10-$C10&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q10-$C10-$D10-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H10-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L10-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>121</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>44878</v>
-      </c>
-      <c r="R10" s="6">
-        <v>5</v>
-      </c>
-      <c r="S10" s="9">
-        <f t="shared" si="3"/>
-        <v>44882</v>
-      </c>
-      <c r="T10" s="10">
-        <v>28</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="V10" s="11">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3">
-        <f t="shared" si="2"/>
-        <v>44562</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="E11" s="5">
-        <v>44599</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7">
-        <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44603</v>
-      </c>
-      <c r="H11" s="8">
-        <f>IF(AND(I11-$C11&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I11-$C11-D11-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>38</v>
-      </c>
-      <c r="I11" s="5">
-        <v>44642</v>
-      </c>
-      <c r="J11" s="6">
-        <v>5</v>
-      </c>
-      <c r="K11" s="7">
-        <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44646</v>
-      </c>
-      <c r="L11" s="8">
-        <f>IF(AND(M11-$C11&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M11-$C11-$D11-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H11-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>106</v>
-      </c>
-      <c r="M11" s="5">
-        <v>44753</v>
-      </c>
-      <c r="N11" s="6">
-        <v>7</v>
-      </c>
-      <c r="O11" s="7">
-        <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44759</v>
-      </c>
-      <c r="P11" s="8">
-        <f>IF(AND(Q11-$C11&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q11-$C11-$D11-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H11-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L11-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>119</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>44879</v>
-      </c>
-      <c r="R11" s="6">
-        <v>7</v>
-      </c>
-      <c r="S11" s="9">
-        <f t="shared" si="3"/>
-        <v>44885</v>
-      </c>
-      <c r="T11" s="19">
-        <v>28</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="V11" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E11 I4:I11 M4:M11 Q4:Q11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>$B$1</formula>
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
+      <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>29</v>
+      <c r="A1" s="23" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>44563</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>44564</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>44565</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>44566</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>44568</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>44569</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>44615</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>44628</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>44682</v>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44683</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>44690</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>44724</v>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44691</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>44869</v>
       </c>
     </row>

--- a/LR3/table_2_12.xlsx
+++ b/LR3/table_2_12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эльдар\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эльдар\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
